--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>2015-09-17 10:48:28</t>
+  </si>
+  <si>
+    <t>2015-09-17 11:38:23</t>
+  </si>
+  <si>
+    <t>2015-09-17 11:38:25</t>
   </si>
 </sst>
 </file>
@@ -819,10 +825,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">

--- a/RestfulAPITest/Http_Request_workbook_Data.xlsx
+++ b/RestfulAPITest/Http_Request_workbook_Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>2015-09-17 11:38:25</t>
+  </si>
+  <si>
+    <t>2015-09-17 12:52:49</t>
+  </si>
+  <si>
+    <t>2015-09-17 12:52:51</t>
+  </si>
+  <si>
+    <t>2015-09-17 13:52:49</t>
+  </si>
+  <si>
+    <t>2015-09-17 13:52:58</t>
+  </si>
+  <si>
+    <t>2015-09-17 13:52:59</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2015-09-17 14:05:54</t>
+  </si>
+  <si>
+    <t>2015-09-17 14:05:58</t>
+  </si>
+  <si>
+    <t>2015-09-17 14:05:59</t>
+  </si>
+  <si>
+    <t>2015-09-17 14:06:00</t>
   </si>
 </sst>
 </file>
@@ -781,30 +811,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -822,13 +829,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
